--- a/Analysed_Data (Task 2).xlsx
+++ b/Analysed_Data (Task 2).xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EF3AD7-805C-4B29-B5EE-284D49DB1205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5011CC1-D2B5-49A0-B576-E05513C7F9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Insights" sheetId="2" r:id="rId2"/>
+    <sheet name="Analysed data(Task2)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -3769,187 +3768,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410EA5D4-1AD9-4781-B1C0-4CB895BAB4AC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="180975" y="276225"/>
-          <a:ext cx="11353800" cy="5305425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="1"/>
-            <a:t>Summary of Dropped Columns</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="1"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>CAMPAIGN_NBR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>The column was found to be completely empty, with no data present in any row.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Since it provides no information or insights, it was dropped from the dataset.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>TRANSACTION_CNTR</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>This column contained only the value 0 for all rows, indicating no variability or useful information.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>As it doesn't contribute to meaningful analysis, it was removed from the dataset.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>COMPLAINT_CD_CSI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>This column contained only the value 1 for all rows, indicating a lack of diversity or actionable insights.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Consequently, it was deemed redundant and dropped.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1"/>
-            <a:t>DEALER_REGION</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>This column was found to be perfectly correlated with SALES_REGION_CODE (correlation = 1).</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr lvl="1"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200"/>
-            <a:t>Retaining both columns would introduce redundancy in the dataset. Therefore, DEALER_REGION was dropped to simplify the dataset and avoid multicollinearity</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US"/>
-            <a:t>.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4239,7 +4057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AV101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -18988,19 +18806,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D8AAFA-5FB4-4B82-992B-8FE5CE5EB2BF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>